--- a/Code Lists/PEPPOL Code Lists - Participant identifier schemes v2.xlsx
+++ b/Code Lists/PEPPOL Code Lists - Participant identifier schemes v2.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$I$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$J$71</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="258">
   <si>
     <t>GLN</t>
   </si>
@@ -391,12 +391,6 @@
     <t>Agencia Española de Administración Tributaria</t>
   </si>
   <si>
-    <t>Last Modification</t>
-  </si>
-  <si>
-    <t>1.0.2 - deprecated</t>
-  </si>
-  <si>
     <t>9 characters in total; letter, number x3, letter, number x3, letter</t>
   </si>
   <si>
@@ -590,9 +584,6 @@
   </si>
   <si>
     <t>1.1.0</t>
-  </si>
-  <si>
-    <t>1.1.0 - deprecated</t>
   </si>
   <si>
     <t>Andorra VAT number</t>
@@ -848,10 +839,16 @@
 The organization number consists of 9 digits where the last digit is a control digit calculated with standard weights, modulus 11. After this, weights 3, 2, 7, 6, 5, 4, 3 and 2 are calculated from the first digit.</t>
   </si>
   <si>
-    <t>2 - Deprecated by 0190</t>
-  </si>
-  <si>
     <t>DK:DIGST</t>
+  </si>
+  <si>
+    <t>Deprecated since</t>
+  </si>
+  <si>
+    <t>Usage notes</t>
+  </si>
+  <si>
+    <t>Deprecated by 0190</t>
   </si>
 </sst>
 </file>
@@ -928,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -937,9 +934,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1364,11 +1358,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1796875" defaultRowHeight="14.5"/>
@@ -1376,16 +1370,17 @@
     <col min="1" max="1" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="83" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="14.1796875" style="2"/>
+    <col min="4" max="4" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67.90625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="34.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -1395,28 +1390,31 @@
       <c r="C1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="101.5">
+      <c r="J1" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="101.5">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>63</v>
@@ -1424,24 +1422,24 @@
       <c r="C2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="29">
+      <c r="J2" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="29">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1451,45 +1449,45 @@
       <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29">
+    <row r="4" spans="1:10" ht="29">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D4" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="130.5">
+    </row>
+    <row r="5" spans="1:10" ht="130.5">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1499,24 +1497,24 @@
       <c r="C5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="E5" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1526,21 +1524,21 @@
       <c r="C6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="E6" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="72.5">
+    <row r="7" spans="1:10" ht="72.5">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1548,23 +1546,23 @@
         <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="E7" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1574,21 +1572,21 @@
       <c r="C8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="E8" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="101.5">
+    <row r="9" spans="1:10" ht="116">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1598,39 +1596,39 @@
       <c r="C9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="E9" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29">
+    <row r="10" spans="1:10" ht="29">
       <c r="A10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="101.5">
+      <c r="D10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="130.5">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1640,21 +1638,21 @@
       <c r="C11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="E11" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1664,104 +1662,104 @@
       <c r="C12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="E12" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D13" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G13" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="29">
+      <c r="A15" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="58">
+      <c r="A16" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="29">
-      <c r="A15" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D15" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="58">
-      <c r="A16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="D16" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1775,17 +1773,17 @@
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="E17" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1799,14 +1797,14 @@
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="E18" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1820,14 +1818,14 @@
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="E19" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1841,14 +1839,14 @@
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="E20" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1862,14 +1860,14 @@
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="E21" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1883,14 +1881,14 @@
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="E22" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1904,12 +1902,12 @@
       <c r="C23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>106</v>
+      </c>
+      <c r="E23" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="29">
@@ -1922,17 +1920,17 @@
       <c r="C24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="7" t="b">
+      <c r="D24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="6" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I24" s="9">
+        <v>174</v>
+      </c>
+      <c r="I24" s="8">
         <v>990399123</v>
       </c>
     </row>
@@ -1943,14 +1941,14 @@
       <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="E25" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1964,15 +1962,15 @@
       <c r="C26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="7" t="b">
+      <c r="D26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="6" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1985,12 +1983,12 @@
       <c r="C27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>106</v>
+      </c>
+      <c r="E27" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="29">
@@ -2003,14 +2001,14 @@
       <c r="C28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="E28" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2024,12 +2022,12 @@
       <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>106</v>
+      </c>
+      <c r="E29" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="29">
@@ -2042,15 +2040,15 @@
       <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="7" t="b">
+      <c r="D30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="6" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2063,12 +2061,12 @@
       <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>106</v>
+      </c>
+      <c r="E31" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="43.5">
@@ -2081,12 +2079,12 @@
       <c r="C32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>107</v>
+      </c>
+      <c r="E32" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2099,15 +2097,15 @@
       <c r="C33" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>112</v>
+      <c r="E33" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="29">
@@ -2120,693 +2118,693 @@
       <c r="C34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>108</v>
+      </c>
+      <c r="E34" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D35" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="C37" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="D38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D37" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D38" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D39" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="5" t="s">
+      <c r="D42" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D40" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="5" t="s">
+      <c r="D43" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D41" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="D44" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D42" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="D45" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D43" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="D47" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D44" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="D48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D45" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="6" t="s">
+      <c r="D49" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D46" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D47" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="D51" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D49" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="D52" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D50" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="D53" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="D54" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D52" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="D55" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="29">
+      <c r="A56" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D53" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="D56" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D54" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="D57" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E57" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D55" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="29">
-      <c r="A56" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="D58" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D56" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="D59" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D57" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="D60" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D58" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="D61" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D59" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="D62" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E62" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E63" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D60" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="D64" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E64" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D61" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="D65" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E65" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D62" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D63" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D64" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="6" t="s">
+      <c r="D66" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D65" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D66" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D67" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="29">
+      <c r="D67" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E67" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D68" s="7" t="b">
+      <c r="D68" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E68" s="6" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="2" t="s">
+      <c r="E69" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D69" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="C70" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="2" t="s">
+      <c r="E70" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D70" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D71" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>233</v>
+      <c r="D71" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E71" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I71"/>
+  <autoFilter ref="A1:J71"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E35:E40 E46:E49 E43:E45 E67 E50:E54 E55:E62 E41:E42 E63:E66" twoDigitTextYear="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>